--- a/Translated/MoviePilot-main/app/chain/douban.py_Translated.xlsx
+++ b/Translated/MoviePilot-main/app/chain/douban.py_Translated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>logger.warn(f' No doujinshi information has been queried， Douban, prc social networking websiteID：{doubanid}')</t>
+          <t>logger.warn(f' No doujinshi information has been found， Douban, prc social networking websiteID：{doubanid}')</t>
         </is>
       </c>
     </row>
@@ -520,216 +520,264 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t># 使用原标题匹配</t>
+          <t># 优先使用原标题匹配</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#  Use original title match</t>
+          <t>#  Prioritize the use of original title matches</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t># 处理类型</t>
+          <t># 合并季</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#  Type of treatment</t>
+          <t>#  Merger season</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t># 识别媒体信息</t>
+          <t># 年份</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#  Identify media messages</t>
+          <t>#  Particular year</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>logger.warn(f'{meta.name} 未识别到TMDB媒体信息')</t>
+          <t># 处理类型</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>logger.warn(f'{meta.name}  Not recognizedTMDB Media information')</t>
+          <t>#  Type of treatment</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>logger.info(f'识别到媒体信息：{mediainfo.type.value} {mediainfo.title_year} {meta.season}')</t>
+          <t># 使用原标题识别媒体信息</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>logger.info(f' Recognition of media messages：{mediainfo.type.value} {mediainfo.title_year} {meta.season}')</t>
+          <t>#  Identify media messages using the original headline</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>获取豆瓣电影TOP250</t>
+          <t># 使用主标题识别媒体信息</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Get douban moviesTOP250</t>
+          <t>#  Identify media messages using the main headline</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>:param page:  页码</t>
+          <t>logger.warn(f'{meta.name} 未识别到TMDB媒体信息')</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>:param page:   Pagination</t>
+          <t>logger.warn(f'{meta.name}  Not recognizedTMDB Media information')</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>:param count:  每页数量</t>
+          <t>logger.info(f'识别到媒体信息：{mediainfo.type.value} {mediainfo.title_year} {meta.season}')</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>:param count:   Quantity per page</t>
+          <t>logger.info(f' Recognition of media messages：{mediainfo.type.value} {mediainfo.title_year} {meta.season}')</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>获取正在上映的电影</t>
+          <t>获取豆瓣电影TOP250</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Get movies in theaters</t>
+          <t>Get douban moviesTOP250</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>获取本周中国剧集榜</t>
+          <t>:param page:  页码</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Get this week's top chinese dramas</t>
+          <t>:param page:   Pagination</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>获取本周全球剧集榜</t>
+          <t>:param count:  每页数量</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Get this week's list of global episodes</t>
+          <t>:param count:   Quantity per page</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>发现豆瓣电影、剧集</t>
+          <t>获取正在上映的电影</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Discover douban movies、 Episode</t>
+          <t>Get movies in theaters</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>:param mtype:  媒体类型</t>
+          <t>获取本周中国剧集榜</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>:param mtype:   Media type</t>
+          <t>Get this week's top chinese dramas</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>:param sort:  排序方式</t>
+          <t>获取本周全球剧集榜</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>:param sort:   Sort by</t>
+          <t>Get this week's list of global episodes</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>:param tags:  标签</t>
+          <t>发现豆瓣电影、剧集</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>:param tags:   Tab (of a window) (computing)</t>
+          <t>Discover douban movies、 Episode</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>:param page:  页码</t>
+          <t>:param mtype:  媒体类型</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>:param page:   Pagination</t>
+          <t>:param mtype:   Media type</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>:param count:  数量</t>
+          <t>:param sort:  排序方式</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>:param count:   Quantities</t>
+          <t>:param sort:   Sort by</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>:param tags:  标签</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>:param tags:   Tab (of a window) (computing)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>:param page:  页码</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>:param page:   Pagination</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>:param count:  数量</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>:param count:   Quantities</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>:return: 媒体信息列表</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>:return:  Media information list</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>获取动画剧集</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Get animated episodes</t>
         </is>
       </c>
     </row>
